--- a/Jacobi.xlsx
+++ b/Jacobi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\ANALISIS NUMERICO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A9DAB46-8BDB-4076-AECE-403BB67E32E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B32277-64BD-4D98-A92D-4D0D561C4511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD769076-7440-4E7A-BAA7-B17B37BA36C9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>x1</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>x3</t>
+  </si>
+  <si>
+    <t>alfa 1</t>
+  </si>
+  <si>
+    <t>alfa 2</t>
+  </si>
+  <si>
+    <t>alfa</t>
+  </si>
+  <si>
+    <t>alfa 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menor a 1 por lo tanto covergera rapido</t>
   </si>
 </sst>
 </file>
@@ -58,7 +73,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,6 +92,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -90,10 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2815515-E292-4152-BB61-6C9F7758454E}">
-  <dimension ref="A2:H13"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>3</v>
       </c>
@@ -430,7 +452,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>0.1</v>
       </c>
@@ -444,7 +466,7 @@
         <v>-19.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>0.3</v>
       </c>
@@ -458,7 +480,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>0</v>
       </c>
@@ -475,7 +497,7 @@
         <v>2.6166666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f>-B3/C3</f>
         <v>-1.4285714285714287E-2</v>
@@ -492,7 +514,7 @@
         <v>-2.7571428571428571</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f>-B4/D4</f>
         <v>-0.03</v>
@@ -509,121 +531,159 @@
         <v>7.1400000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f>+ABS(C6)+ABS(D6)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <f>+ABS(B7)+ABS(D7)</f>
+        <v>5.7142857142857148E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f>+ABS(B8)+ABS(C8)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D17" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E17" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F17" s="2">
         <v>4</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G17" s="2">
         <v>5</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H17" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <f>+$C$6*B12+$D$6*B13+$F$6</f>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>+$C$6*B19+$D$6*B20+$F$6</f>
         <v>2.6166666666666667</v>
       </c>
-      <c r="D11">
-        <f t="shared" ref="D11:H11" si="0">+$C$6*C12+$D$6*C13+$F$6</f>
+      <c r="D18">
+        <f t="shared" ref="D18:H18" si="0">+$C$6*C19+$D$6*C20+$F$6</f>
         <v>2.2325714285714287</v>
       </c>
-      <c r="E11">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>2.2455746031746031</v>
       </c>
-      <c r="F11">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>2.2441323015873014</v>
       </c>
-      <c r="G11">
+      <c r="G18">
         <f t="shared" si="0"/>
         <v>2.2441994228269087</v>
       </c>
-      <c r="H11">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>2.2441938101965229</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <f>+$B$7*B11+$D$7*B13+$F$7</f>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f>+$B$7*B18+$D$7*B20+$F$7</f>
         <v>-2.7571428571428571</v>
       </c>
-      <c r="D12">
-        <f t="shared" ref="D12:P12" si="1">+$B$7*C11+$D$7*C13+$F$7</f>
+      <c r="D19">
+        <f t="shared" ref="D19:H19" si="1">+$B$7*C18+$D$7*C20+$F$7</f>
         <v>-3.1005238095238097</v>
       </c>
-      <c r="E12">
+      <c r="E19">
         <f t="shared" si="1"/>
         <v>-3.0940357142857144</v>
       </c>
-      <c r="F12">
+      <c r="F19">
         <f t="shared" si="1"/>
         <v>-3.0950096371882085</v>
       </c>
-      <c r="G12">
+      <c r="G19">
         <f t="shared" si="1"/>
         <v>-3.0949667532879817</v>
       </c>
-      <c r="H12">
+      <c r="H19">
         <f t="shared" si="1"/>
         <v>-3.0949704013416479</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <f>+$B$8*B11+$C$8*B12+$F$8</f>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>+$B$8*B18+$C$8*B19+$F$8</f>
         <v>7.1400000000000006</v>
       </c>
-      <c r="D13">
-        <f t="shared" ref="D13:H13" si="2">+$B$8*C11+$C$8*C12+$F$8</f>
+      <c r="D20">
+        <f t="shared" ref="D20:H20" si="2">+$B$8*C18+$C$8*C19+$F$8</f>
         <v>7.1166428571428577</v>
       </c>
-      <c r="E13">
+      <c r="E20">
         <f t="shared" si="2"/>
         <v>7.1350333333333342</v>
       </c>
-      <c r="F13">
+      <c r="F20">
         <f t="shared" si="2"/>
         <v>7.1345134761904765</v>
       </c>
-      <c r="G13">
+      <c r="G20">
         <f t="shared" si="2"/>
         <v>7.1345762236961461</v>
       </c>
-      <c r="H13">
+      <c r="H20">
         <f t="shared" si="2"/>
         <v>7.1345733523809534</v>
       </c>

--- a/Jacobi.xlsx
+++ b/Jacobi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\ANALISIS NUMERICO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B32277-64BD-4D98-A92D-4D0D561C4511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8668603-7B89-40F1-A9F9-85A65D9DEDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD769076-7440-4E7A-BAA7-B17B37BA36C9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>x1</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve"> menor a 1 por lo tanto covergera rapido</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>e3</t>
   </si>
 </sst>
 </file>
@@ -430,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2815515-E292-4152-BB61-6C9F7758454E}">
-  <dimension ref="A2:H20"/>
+  <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,8 +529,8 @@
         <v>-0.03</v>
       </c>
       <c r="C8" s="1">
-        <f>+C4/D4</f>
-        <v>-0.02</v>
+        <f>-C4/D4</f>
+        <v>0.02</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -532,7 +541,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10">
@@ -541,7 +550,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11">
@@ -550,7 +559,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C12">
@@ -569,7 +578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>0</v>
       </c>
@@ -591,8 +600,17 @@
       <c r="H17" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>7</v>
+      </c>
+      <c r="J17" s="2">
+        <v>8</v>
+      </c>
+      <c r="K17" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -604,27 +622,39 @@
         <v>2.6166666666666667</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:H18" si="0">+$C$6*C19+$D$6*C20+$F$6</f>
-        <v>2.2325714285714287</v>
+        <f t="shared" ref="D18:K18" si="0">+$C$6*C19+$D$6*C20+$F$6</f>
+        <v>2.2427768253968252</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>2.2455746031746031</v>
+        <v>2.2522522153711262</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>2.2441323015873014</v>
+        <v>2.2522837608126625</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>2.2441994228269087</v>
+        <v>2.2522834063989583</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>2.2441938101965229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.2522834044664473</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>2.2522834044784705</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>2.2522834044785736</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>2.2522834044785731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -632,31 +662,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <f>+$B$7*B18+$D$7*B20+$F$7</f>
-        <v>-2.7571428571428571</v>
+        <f>+$B$7*C18+$D$7*B20+$F$7</f>
+        <v>-2.7945238095238096</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:H19" si="1">+$B$7*C18+$D$7*C20+$F$7</f>
-        <v>-3.1005238095238097</v>
+        <f t="shared" ref="D19:K19" si="1">+$B$7*D18+$D$7*C20+$F$7</f>
+        <v>-3.0894229342403627</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>-3.0940357142857144</v>
+        <v>-3.089786241786157</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>-3.0950096371882085</v>
+        <v>-3.0897741983846014</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>-3.0949667532879817</v>
+        <v>-3.0897741630860391</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>-3.0949704013416479</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-3.0897741635443623</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>-3.0897741635466263</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>-3.0897741635466103</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>-3.0897741635466103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -664,28 +706,185 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <f>+$B$8*B18+$C$8*B19+$F$8</f>
-        <v>7.1400000000000006</v>
+        <f>+$B$8*C18+$C$8*C19+$F$8</f>
+        <v>7.0056095238095244</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:H20" si="2">+$B$8*C18+$C$8*C19+$F$8</f>
-        <v>7.1166428571428577</v>
+        <f t="shared" ref="D20:K20" si="2">+$B$8*D18+$C$8*D19+$F$8</f>
+        <v>7.0109282365532888</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>7.1350333333333342</v>
+        <v>7.010636708703144</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>7.1345134761904765</v>
+        <v>7.0106360032079289</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>7.1345762236961461</v>
+        <v>7.0106360145463107</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>7.1345733523809534</v>
+        <v>7.0106360145951196</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>7.0106360145947137</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>7.0106360145947111</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>7.0106360145947111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <f>+ABS(C18)-ABS(B18)</f>
+        <v>2.6166666666666667</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:I23" si="3">+ABS(D18)-ABS(C18)</f>
+        <v>-0.37388984126984148</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>9.475389974300974E-3</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>3.15454415362737E-5</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>-3.544137041622264E-7</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>-1.9325110400814083E-9</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>1.2023271267480595E-11</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>1.0302869668521453E-13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:I25" si="4">+ABS(C19)-ABS(B19)</f>
+        <v>2.7945238095238096</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>0.29489912471655311</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>3.6330754579427804E-4</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>-1.2043401555583699E-5</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>-3.5298562295338343E-8</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>4.5832315720417682E-10</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>2.2639667918156192E-12</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>-1.5987211554602254E-14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="4"/>
+        <v>7.0056095238095244</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>5.3187127437643866E-3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>-2.9152785014474603E-4</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>-7.0549521513640912E-7</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>1.1338381789016694E-8</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>4.8808956876200682E-11</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>-4.0589753780295723E-13</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>+MAX(B23:B25)</f>
+        <v>7.0056095238095244</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:I27" si="5">+MAX(C23:C25)</f>
+        <v>0.29489912471655311</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>9.475389974300974E-3</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>3.15454415362737E-5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>1.1338381789016694E-8</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>4.5832315720417682E-10</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>1.2023271267480595E-11</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>1.0302869668521453E-13</v>
       </c>
     </row>
   </sheetData>
